--- a/MAY BME Monthly  Attenance 1 semester Basic Eelctrical Engineering.xlsx
+++ b/MAY BME Monthly  Attenance 1 semester Basic Eelctrical Engineering.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10350" windowHeight="7120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="MAY" sheetId="24" r:id="rId1"/>
     <sheet name="Overall Attendance" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY!$A$1:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY!$A$1:$J$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall Attendance'!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -906,17 +906,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -934,6 +925,39 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,29 +970,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,7 +1035,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +1093,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1383,11 +1410,12 @@
     <col min="5" max="5" width="9.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.09765625" style="4"/>
+    <col min="8" max="8" width="10.5" style="40" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="25" t="s">
@@ -1397,19 +1425,21 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:23" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:24" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:23" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:24" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="47" t="s">
@@ -1421,7 +1451,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -1437,20 +1467,21 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
-    </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1466,20 +1497,21 @@
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
-    </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="25"/>
+    </row>
+    <row r="5" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -1495,47 +1527,51 @@
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
       <c r="W5" s="26"/>
-    </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X5" s="26"/>
+    </row>
+    <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-    </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -1543,12 +1579,13 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="57" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1566,16 +1603,19 @@
       <c r="G10" s="18">
         <v>24</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="78">
+        <v>31</v>
+      </c>
+      <c r="I10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="J10" s="59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+    <row r="11" spans="1:24" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1591,12 +1631,15 @@
       <c r="G11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="H11" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1612,28 +1655,32 @@
       <c r="G12" s="19">
         <v>3</v>
       </c>
-      <c r="H12" s="42">
-        <v>12</v>
-      </c>
-      <c r="I12" s="43">
-        <f>(H12/$H$12)*100</f>
+      <c r="H12" s="38">
+        <v>3</v>
+      </c>
+      <c r="I12" s="42">
+        <v>15</v>
+      </c>
+      <c r="J12" s="43">
+        <f>(I12/$I$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+    <row r="13" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="22">
         <v>1</v>
       </c>
@@ -1643,7 +1690,7 @@
       <c r="C14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="50">
         <v>3</v>
       </c>
       <c r="E14" s="13">
@@ -1655,16 +1702,19 @@
       <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="42">
-        <f t="shared" ref="H14:H50" si="0">SUM(D14:G14)</f>
-        <v>12</v>
-      </c>
-      <c r="I14" s="46">
-        <f t="shared" ref="I14:I50" si="1">(H14/$H$12)*$I$12</f>
+      <c r="H14" s="79">
+        <v>3</v>
+      </c>
+      <c r="I14" s="42">
+        <f>SUM(D14:H14)</f>
+        <v>15</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" ref="J14:J50" si="0">(I14/$I$12)*$J$12</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="22">
         <v>2</v>
       </c>
@@ -1674,7 +1724,7 @@
       <c r="C15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <v>3</v>
       </c>
       <c r="E15" s="13">
@@ -1686,16 +1736,19 @@
       <c r="G15" s="13">
         <v>3</v>
       </c>
-      <c r="H15" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I15" s="46">
-        <f t="shared" si="1"/>
+      <c r="H15" s="79">
+        <v>3</v>
+      </c>
+      <c r="I15" s="51">
+        <f t="shared" ref="I15:I50" si="1">SUM(D15:H15)</f>
+        <v>15</v>
+      </c>
+      <c r="J15" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="22">
         <v>3</v>
       </c>
@@ -1705,7 +1758,7 @@
       <c r="C16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>3</v>
       </c>
       <c r="E16" s="13">
@@ -1717,16 +1770,19 @@
       <c r="G16" s="13">
         <v>3</v>
       </c>
-      <c r="H16" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I16" s="46">
-        <f t="shared" si="1"/>
+      <c r="H16" s="79">
+        <v>3</v>
+      </c>
+      <c r="I16" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="22">
         <v>4</v>
       </c>
@@ -1736,7 +1792,7 @@
       <c r="C17" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>3</v>
       </c>
       <c r="E17" s="13">
@@ -1748,16 +1804,19 @@
       <c r="G17" s="13">
         <v>3</v>
       </c>
-      <c r="H17" s="50">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I17" s="46">
-        <f t="shared" si="1"/>
+      <c r="H17" s="79">
+        <v>3</v>
+      </c>
+      <c r="I17" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J17" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1767,28 +1826,31 @@
       <c r="C18" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>3</v>
       </c>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="46">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="79">
+        <v>3</v>
+      </c>
+      <c r="I18" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -1798,7 +1860,7 @@
       <c r="C19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <v>3</v>
       </c>
       <c r="E19" s="13">
@@ -1810,16 +1872,19 @@
       <c r="G19" s="13">
         <v>3</v>
       </c>
-      <c r="H19" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I19" s="46">
-        <f t="shared" si="1"/>
+      <c r="H19" s="79">
+        <v>3</v>
+      </c>
+      <c r="I19" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J19" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1829,28 +1894,31 @@
       <c r="C20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <v>3</v>
       </c>
       <c r="E20" s="13">
         <v>3</v>
       </c>
       <c r="F20" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I20" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H20" s="79">
+        <v>3</v>
+      </c>
+      <c r="I20" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
         <v>8</v>
       </c>
@@ -1860,7 +1928,7 @@
       <c r="C21" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>3</v>
       </c>
       <c r="E21" s="13">
@@ -1872,16 +1940,19 @@
       <c r="G21" s="13">
         <v>3</v>
       </c>
-      <c r="H21" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I21" s="46">
-        <f t="shared" si="1"/>
+      <c r="H21" s="79">
+        <v>3</v>
+      </c>
+      <c r="I21" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
         <v>9</v>
       </c>
@@ -1891,7 +1962,7 @@
       <c r="C22" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <v>3</v>
       </c>
       <c r="E22" s="13">
@@ -1903,16 +1974,19 @@
       <c r="G22" s="13">
         <v>3</v>
       </c>
-      <c r="H22" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I22" s="46">
-        <f t="shared" si="1"/>
+      <c r="H22" s="79">
+        <v>3</v>
+      </c>
+      <c r="I22" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J22" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
         <v>10</v>
       </c>
@@ -1922,7 +1996,7 @@
       <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="50">
         <v>3</v>
       </c>
       <c r="E23" s="13">
@@ -1934,16 +2008,19 @@
       <c r="G23" s="13">
         <v>3</v>
       </c>
-      <c r="H23" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="46">
-        <f t="shared" si="1"/>
+      <c r="H23" s="79">
+        <v>3</v>
+      </c>
+      <c r="I23" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J23" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
         <v>11</v>
       </c>
@@ -1953,28 +2030,31 @@
       <c r="C24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="50">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
+        <v>3</v>
+      </c>
+      <c r="H24" s="79">
         <v>0</v>
       </c>
-      <c r="E24" s="13">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>3</v>
-      </c>
-      <c r="H24" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I24" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J24" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
         <v>12</v>
       </c>
@@ -1984,7 +2064,7 @@
       <c r="C25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="50">
         <v>3</v>
       </c>
       <c r="E25" s="13">
@@ -1996,16 +2076,19 @@
       <c r="G25" s="13">
         <v>3</v>
       </c>
-      <c r="H25" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I25" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H25" s="79">
+        <v>3</v>
+      </c>
+      <c r="I25" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J25" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
         <v>13</v>
       </c>
@@ -2015,7 +2098,7 @@
       <c r="C26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="50">
         <v>3</v>
       </c>
       <c r="E26" s="13">
@@ -2027,16 +2110,19 @@
       <c r="G26" s="13">
         <v>3</v>
       </c>
-      <c r="H26" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I26" s="46">
-        <f t="shared" si="1"/>
+      <c r="H26" s="79">
+        <v>3</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J26" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
         <v>14</v>
       </c>
@@ -2046,7 +2132,7 @@
       <c r="C27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="50">
         <v>3</v>
       </c>
       <c r="E27" s="13">
@@ -2058,16 +2144,19 @@
       <c r="G27" s="13">
         <v>3</v>
       </c>
-      <c r="H27" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I27" s="46">
-        <f t="shared" si="1"/>
+      <c r="H27" s="79">
+        <v>3</v>
+      </c>
+      <c r="I27" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
         <v>15</v>
       </c>
@@ -2077,7 +2166,7 @@
       <c r="C28" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <v>3</v>
       </c>
       <c r="E28" s="13">
@@ -2089,16 +2178,19 @@
       <c r="G28" s="13">
         <v>3</v>
       </c>
-      <c r="H28" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I28" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H28" s="79">
+        <v>3</v>
+      </c>
+      <c r="I28" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J28" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
         <v>16</v>
       </c>
@@ -2108,28 +2200,31 @@
       <c r="C29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="50">
         <v>3</v>
       </c>
       <c r="E29" s="13">
         <v>3</v>
       </c>
       <c r="F29" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
-      <c r="H29" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I29" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H29" s="79">
+        <v>3</v>
+      </c>
+      <c r="I29" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J29" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
         <v>17</v>
       </c>
@@ -2139,7 +2234,7 @@
       <c r="C30" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="50">
         <v>3</v>
       </c>
       <c r="E30" s="13">
@@ -2151,16 +2246,19 @@
       <c r="G30" s="13">
         <v>3</v>
       </c>
-      <c r="H30" s="42">
-        <f t="shared" si="0"/>
+      <c r="H30" s="79">
+        <v>0</v>
+      </c>
+      <c r="I30" s="51">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I30" s="46">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J30" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
         <v>18</v>
       </c>
@@ -2170,7 +2268,7 @@
       <c r="C31" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="50">
         <v>3</v>
       </c>
       <c r="E31" s="13">
@@ -2182,16 +2280,19 @@
       <c r="G31" s="13">
         <v>3</v>
       </c>
-      <c r="H31" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I31" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H31" s="79">
+        <v>3</v>
+      </c>
+      <c r="I31" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
         <v>19</v>
       </c>
@@ -2201,7 +2302,7 @@
       <c r="C32" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="50">
         <v>3</v>
       </c>
       <c r="E32" s="13">
@@ -2213,16 +2314,19 @@
       <c r="G32" s="13">
         <v>3</v>
       </c>
-      <c r="H32" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I32" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H32" s="79">
+        <v>3</v>
+      </c>
+      <c r="I32" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="22">
         <v>20</v>
       </c>
@@ -2232,7 +2336,7 @@
       <c r="C33" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="50">
         <v>3</v>
       </c>
       <c r="E33" s="13">
@@ -2244,16 +2348,19 @@
       <c r="G33" s="13">
         <v>3</v>
       </c>
-      <c r="H33" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I33" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H33" s="79">
+        <v>3</v>
+      </c>
+      <c r="I33" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J33" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
         <v>21</v>
       </c>
@@ -2263,7 +2370,7 @@
       <c r="C34" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="50">
         <v>3</v>
       </c>
       <c r="E34" s="13">
@@ -2275,16 +2382,19 @@
       <c r="G34" s="13">
         <v>3</v>
       </c>
-      <c r="H34" s="42">
-        <f t="shared" si="0"/>
+      <c r="H34" s="79">
+        <v>0</v>
+      </c>
+      <c r="I34" s="51">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I34" s="46">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J34" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
         <v>22</v>
       </c>
@@ -2294,7 +2404,7 @@
       <c r="C35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="50">
         <v>3</v>
       </c>
       <c r="E35" s="13">
@@ -2306,16 +2416,19 @@
       <c r="G35" s="13">
         <v>3</v>
       </c>
-      <c r="H35" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I35" s="46">
-        <f t="shared" si="1"/>
+      <c r="H35" s="79">
+        <v>3</v>
+      </c>
+      <c r="I35" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J35" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
         <v>23</v>
       </c>
@@ -2325,28 +2438,31 @@
       <c r="C36" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="50">
         <v>3</v>
       </c>
       <c r="E36" s="13">
         <v>3</v>
       </c>
       <c r="F36" s="13">
+        <v>3</v>
+      </c>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
+      <c r="H36" s="79">
         <v>0</v>
       </c>
-      <c r="G36" s="13">
-        <v>3</v>
-      </c>
-      <c r="H36" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I36" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J36" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
         <v>24</v>
       </c>
@@ -2356,7 +2472,7 @@
       <c r="C37" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <v>3</v>
       </c>
       <c r="E37" s="13">
@@ -2368,16 +2484,19 @@
       <c r="G37" s="13">
         <v>3</v>
       </c>
-      <c r="H37" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I37" s="46">
-        <f t="shared" si="1"/>
+      <c r="H37" s="79">
+        <v>3</v>
+      </c>
+      <c r="I37" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J37" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
         <v>25</v>
       </c>
@@ -2387,28 +2506,31 @@
       <c r="C38" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="50">
         <v>3</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
       </c>
-      <c r="H38" s="42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I38" s="46">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H38" s="79">
+        <v>3</v>
+      </c>
+      <c r="I38" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J38" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
         <v>26</v>
       </c>
@@ -2418,7 +2540,7 @@
       <c r="C39" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="50">
         <v>3</v>
       </c>
       <c r="E39" s="13">
@@ -2430,16 +2552,19 @@
       <c r="G39" s="13">
         <v>3</v>
       </c>
-      <c r="H39" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I39" s="46">
-        <f t="shared" si="1"/>
+      <c r="H39" s="79">
+        <v>3</v>
+      </c>
+      <c r="I39" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J39" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
         <v>27</v>
       </c>
@@ -2449,7 +2574,7 @@
       <c r="C40" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="50">
         <v>3</v>
       </c>
       <c r="E40" s="13">
@@ -2461,16 +2586,19 @@
       <c r="G40" s="13">
         <v>3</v>
       </c>
-      <c r="H40" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I40" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H40" s="79">
+        <v>3</v>
+      </c>
+      <c r="I40" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J40" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
         <v>28</v>
       </c>
@@ -2480,7 +2608,7 @@
       <c r="C41" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="50">
         <v>3</v>
       </c>
       <c r="E41" s="13">
@@ -2492,16 +2620,19 @@
       <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I41" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H41" s="79">
+        <v>3</v>
+      </c>
+      <c r="I41" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J41" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="22">
         <v>29</v>
       </c>
@@ -2511,8 +2642,8 @@
       <c r="C42" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="51">
-        <v>0</v>
+      <c r="D42" s="50">
+        <v>3</v>
       </c>
       <c r="E42" s="13">
         <v>3</v>
@@ -2523,16 +2654,19 @@
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I42" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H42" s="79">
+        <v>3</v>
+      </c>
+      <c r="I42" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J42" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
         <v>30</v>
       </c>
@@ -2542,7 +2676,7 @@
       <c r="C43" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="50">
         <v>3</v>
       </c>
       <c r="E43" s="13">
@@ -2554,16 +2688,19 @@
       <c r="G43" s="13">
         <v>3</v>
       </c>
-      <c r="H43" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I43" s="46">
-        <f t="shared" si="1"/>
+      <c r="H43" s="79">
+        <v>3</v>
+      </c>
+      <c r="I43" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J43" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
         <v>31</v>
       </c>
@@ -2573,7 +2710,7 @@
       <c r="C44" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <v>3</v>
       </c>
       <c r="E44" s="13">
@@ -2585,16 +2722,19 @@
       <c r="G44" s="13">
         <v>3</v>
       </c>
-      <c r="H44" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I44" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H44" s="79">
+        <v>3</v>
+      </c>
+      <c r="I44" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J44" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="22">
         <v>32</v>
       </c>
@@ -2604,7 +2744,7 @@
       <c r="C45" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="50">
         <v>3</v>
       </c>
       <c r="E45" s="13">
@@ -2616,16 +2756,19 @@
       <c r="G45" s="13">
         <v>0</v>
       </c>
-      <c r="H45" s="42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I45" s="46">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H45" s="79">
+        <v>3</v>
+      </c>
+      <c r="I45" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J45" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="22">
         <v>33</v>
       </c>
@@ -2635,7 +2778,7 @@
       <c r="C46" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="50">
         <v>3</v>
       </c>
       <c r="E46" s="13">
@@ -2647,16 +2790,19 @@
       <c r="G46" s="13">
         <v>3</v>
       </c>
-      <c r="H46" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I46" s="46">
-        <f t="shared" si="1"/>
+      <c r="H46" s="79">
+        <v>3</v>
+      </c>
+      <c r="I46" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J46" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="22">
         <v>34</v>
       </c>
@@ -2666,8 +2812,8 @@
       <c r="C47" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="51">
-        <v>0</v>
+      <c r="D47" s="50">
+        <v>3</v>
       </c>
       <c r="E47" s="13">
         <v>3</v>
@@ -2678,16 +2824,19 @@
       <c r="G47" s="13">
         <v>0</v>
       </c>
-      <c r="H47" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I47" s="46">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="79">
+        <v>3</v>
+      </c>
+      <c r="I47" s="51">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J47" s="46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="22">
         <v>35</v>
       </c>
@@ -2697,7 +2846,7 @@
       <c r="C48" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="50">
         <v>3</v>
       </c>
       <c r="E48" s="13">
@@ -2709,16 +2858,19 @@
       <c r="G48" s="13">
         <v>3</v>
       </c>
-      <c r="H48" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I48" s="46">
-        <f t="shared" si="1"/>
+      <c r="H48" s="79">
+        <v>3</v>
+      </c>
+      <c r="I48" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J48" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="22">
         <v>36</v>
       </c>
@@ -2728,7 +2880,7 @@
       <c r="C49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="50">
         <v>3</v>
       </c>
       <c r="E49" s="13">
@@ -2740,16 +2892,19 @@
       <c r="G49" s="13">
         <v>3</v>
       </c>
-      <c r="H49" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I49" s="46">
-        <f t="shared" si="1"/>
+      <c r="H49" s="79">
+        <v>3</v>
+      </c>
+      <c r="I49" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J49" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="22">
         <v>37</v>
       </c>
@@ -2759,7 +2914,7 @@
       <c r="C50" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="50">
         <v>3</v>
       </c>
       <c r="E50" s="13">
@@ -2771,52 +2926,67 @@
       <c r="G50" s="13">
         <v>3</v>
       </c>
-      <c r="H50" s="42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I50" s="46">
-        <f t="shared" si="1"/>
+      <c r="H50" s="79">
+        <v>3</v>
+      </c>
+      <c r="I50" s="51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J50" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="48"/>
       <c r="D51" s="49"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C52" s="53" t="s">
+      <c r="H51" s="41"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C52" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="53" t="s">
+      <c r="G52" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F54" s="3"/>
       <c r="G54" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H54" s="80"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="41"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
+      <c r="H58" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="C2:G2"/>
@@ -2828,13 +2998,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -2872,26 +3035,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -2899,13 +3062,13 @@
       <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -2913,13 +3076,13 @@
       <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -2927,11 +3090,11 @@
       <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -2939,11 +3102,11 @@
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -2951,11 +3114,11 @@
       <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -2968,57 +3131,57 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="71" t="str">
+      <c r="D9" s="67" t="str">
         <f>MAY!E5</f>
         <v>May</v>
       </c>
-      <c r="E9" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="67" t="s">
+      <c r="E9" s="67" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="67" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="62"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="28">
-        <f>MAY!H12</f>
-        <v>12</v>
+        <f>MAY!I12</f>
+        <v>15</v>
       </c>
       <c r="E11" s="28" t="e">
         <f>#REF!</f>
@@ -3036,7 +3199,7 @@
         <f>(G11/$G$11)*100</f>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
@@ -3049,8 +3212,8 @@
         <v>27</v>
       </c>
       <c r="D12" s="13">
-        <f>MAY!H14</f>
-        <v>12</v>
+        <f>MAY!I14</f>
+        <v>15</v>
       </c>
       <c r="E12" s="13" t="e">
         <f>#REF!</f>
@@ -3084,8 +3247,8 @@
         <v>28</v>
       </c>
       <c r="D13" s="13">
-        <f>MAY!H15</f>
-        <v>12</v>
+        <f>MAY!I15</f>
+        <v>15</v>
       </c>
       <c r="E13" s="13" t="e">
         <f>#REF!</f>
@@ -3119,8 +3282,8 @@
         <v>29</v>
       </c>
       <c r="D14" s="13">
-        <f>MAY!H16</f>
-        <v>12</v>
+        <f>MAY!I16</f>
+        <v>15</v>
       </c>
       <c r="E14" s="13" t="e">
         <f>#REF!</f>
@@ -3154,8 +3317,8 @@
         <v>30</v>
       </c>
       <c r="D15" s="13">
-        <f>MAY!H18</f>
-        <v>3</v>
+        <f>MAY!I18</f>
+        <v>12</v>
       </c>
       <c r="E15" s="13" t="e">
         <f>#REF!</f>
@@ -3189,8 +3352,8 @@
         <v>31</v>
       </c>
       <c r="D16" s="13">
-        <f>MAY!H19</f>
-        <v>12</v>
+        <f>MAY!I19</f>
+        <v>15</v>
       </c>
       <c r="E16" s="13" t="e">
         <f>#REF!</f>
@@ -3259,8 +3422,8 @@
         <v>33</v>
       </c>
       <c r="D18" s="13">
-        <f>MAY!H20</f>
-        <v>6</v>
+        <f>MAY!I20</f>
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="e">
         <f>#REF!</f>
@@ -3294,8 +3457,8 @@
         <v>35</v>
       </c>
       <c r="D19" s="13">
-        <f>MAY!H21</f>
-        <v>12</v>
+        <f>MAY!I21</f>
+        <v>15</v>
       </c>
       <c r="E19" s="13" t="e">
         <f>#REF!</f>
@@ -3329,8 +3492,8 @@
         <v>36</v>
       </c>
       <c r="D20" s="13">
-        <f>MAY!H22</f>
-        <v>12</v>
+        <f>MAY!I22</f>
+        <v>15</v>
       </c>
       <c r="E20" s="13" t="e">
         <f>#REF!</f>
@@ -3364,8 +3527,8 @@
         <v>37</v>
       </c>
       <c r="D21" s="13">
-        <f>MAY!H23</f>
-        <v>12</v>
+        <f>MAY!I23</f>
+        <v>15</v>
       </c>
       <c r="E21" s="13" t="e">
         <f>#REF!</f>
@@ -3399,8 +3562,8 @@
         <v>56</v>
       </c>
       <c r="D22" s="13">
-        <f>MAY!H24</f>
-        <v>6</v>
+        <f>MAY!I24</f>
+        <v>12</v>
       </c>
       <c r="E22" s="13" t="e">
         <f>#REF!</f>
@@ -3434,8 +3597,8 @@
         <v>38</v>
       </c>
       <c r="D23" s="13">
-        <f>MAY!H25</f>
-        <v>9</v>
+        <f>MAY!I25</f>
+        <v>12</v>
       </c>
       <c r="E23" s="13" t="e">
         <f>#REF!</f>
@@ -3504,8 +3667,8 @@
         <v>40</v>
       </c>
       <c r="D25" s="13">
-        <f>MAY!H26</f>
-        <v>12</v>
+        <f>MAY!I26</f>
+        <v>15</v>
       </c>
       <c r="E25" s="13" t="e">
         <f>#REF!</f>
@@ -3539,8 +3702,8 @@
         <v>41</v>
       </c>
       <c r="D26" s="13">
-        <f>MAY!H27</f>
-        <v>12</v>
+        <f>MAY!I27</f>
+        <v>15</v>
       </c>
       <c r="E26" s="13" t="e">
         <f>#REF!</f>
@@ -3574,8 +3737,8 @@
         <v>42</v>
       </c>
       <c r="D27" s="13">
-        <f>MAY!H28</f>
-        <v>9</v>
+        <f>MAY!I28</f>
+        <v>12</v>
       </c>
       <c r="E27" s="13" t="e">
         <f>#REF!</f>
@@ -3609,8 +3772,8 @@
         <v>43</v>
       </c>
       <c r="D28" s="13">
-        <f>MAY!H29</f>
-        <v>6</v>
+        <f>MAY!I29</f>
+        <v>12</v>
       </c>
       <c r="E28" s="13" t="e">
         <f>#REF!</f>
@@ -3679,7 +3842,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="13">
-        <f>MAY!H30</f>
+        <f>MAY!I30</f>
         <v>12</v>
       </c>
       <c r="E30" s="13" t="e">
@@ -3714,8 +3877,8 @@
         <v>45</v>
       </c>
       <c r="D31" s="13">
-        <f>MAY!H32</f>
-        <v>9</v>
+        <f>MAY!I32</f>
+        <v>12</v>
       </c>
       <c r="E31" s="13" t="e">
         <f>#REF!</f>
@@ -3749,8 +3912,8 @@
         <v>58</v>
       </c>
       <c r="D32" s="13">
-        <f>MAY!H33</f>
-        <v>9</v>
+        <f>MAY!I33</f>
+        <v>12</v>
       </c>
       <c r="E32" s="13" t="e">
         <f>#REF!</f>
@@ -3784,7 +3947,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="13">
-        <f>MAY!H34</f>
+        <f>MAY!I34</f>
         <v>12</v>
       </c>
       <c r="E33" s="13" t="e">
@@ -3819,8 +3982,8 @@
         <v>47</v>
       </c>
       <c r="D34" s="13">
-        <f>MAY!H35</f>
-        <v>12</v>
+        <f>MAY!I35</f>
+        <v>15</v>
       </c>
       <c r="E34" s="13" t="e">
         <f>#REF!</f>
@@ -3854,8 +4017,8 @@
         <v>48</v>
       </c>
       <c r="D35" s="13">
-        <f>MAY!H36</f>
-        <v>9</v>
+        <f>MAY!I36</f>
+        <v>12</v>
       </c>
       <c r="E35" s="13" t="e">
         <f>#REF!</f>
@@ -3889,8 +4052,8 @@
         <v>49</v>
       </c>
       <c r="D36" s="13">
-        <f>MAY!H37</f>
-        <v>12</v>
+        <f>MAY!I37</f>
+        <v>15</v>
       </c>
       <c r="E36" s="13" t="e">
         <f>#REF!</f>
@@ -3924,8 +4087,8 @@
         <v>102</v>
       </c>
       <c r="D37" s="13">
-        <f>MAY!H38</f>
-        <v>3</v>
+        <f>MAY!I38</f>
+        <v>12</v>
       </c>
       <c r="E37" s="13" t="e">
         <f>#REF!</f>
@@ -3959,8 +4122,8 @@
         <v>50</v>
       </c>
       <c r="D38" s="13">
-        <f>MAY!H39</f>
-        <v>12</v>
+        <f>MAY!I39</f>
+        <v>15</v>
       </c>
       <c r="E38" s="13" t="e">
         <f>#REF!</f>
@@ -3994,8 +4157,8 @@
         <v>59</v>
       </c>
       <c r="D39" s="13">
-        <f>MAY!H40</f>
-        <v>9</v>
+        <f>MAY!I40</f>
+        <v>12</v>
       </c>
       <c r="E39" s="13" t="e">
         <f>#REF!</f>
@@ -4029,8 +4192,8 @@
         <v>51</v>
       </c>
       <c r="D40" s="13">
-        <f>MAY!H41</f>
-        <v>9</v>
+        <f>MAY!I41</f>
+        <v>12</v>
       </c>
       <c r="E40" s="13" t="e">
         <f>#REF!</f>
@@ -4064,8 +4227,8 @@
         <v>52</v>
       </c>
       <c r="D41" s="13">
-        <f>MAY!H42</f>
-        <v>6</v>
+        <f>MAY!I42</f>
+        <v>12</v>
       </c>
       <c r="E41" s="13" t="e">
         <f>#REF!</f>
@@ -4099,8 +4262,8 @@
         <v>53</v>
       </c>
       <c r="D42" s="13">
-        <f>MAY!H43</f>
-        <v>12</v>
+        <f>MAY!I43</f>
+        <v>15</v>
       </c>
       <c r="E42" s="13" t="e">
         <f>#REF!</f>
@@ -4134,8 +4297,8 @@
         <v>60</v>
       </c>
       <c r="D43" s="13">
-        <f>MAY!H44</f>
-        <v>9</v>
+        <f>MAY!I44</f>
+        <v>12</v>
       </c>
       <c r="E43" s="13" t="e">
         <f>#REF!</f>
@@ -4169,8 +4332,8 @@
         <v>61</v>
       </c>
       <c r="D44" s="13">
-        <f>MAY!H45</f>
-        <v>9</v>
+        <f>MAY!I45</f>
+        <v>12</v>
       </c>
       <c r="E44" s="13" t="e">
         <f>#REF!</f>
@@ -4204,8 +4367,8 @@
         <v>62</v>
       </c>
       <c r="D45" s="13">
-        <f>MAY!H46</f>
-        <v>12</v>
+        <f>MAY!I46</f>
+        <v>15</v>
       </c>
       <c r="E45" s="13" t="e">
         <f>#REF!</f>
@@ -4239,8 +4402,8 @@
         <v>63</v>
       </c>
       <c r="D46" s="13">
-        <f>MAY!H47</f>
-        <v>6</v>
+        <f>MAY!I47</f>
+        <v>12</v>
       </c>
       <c r="E46" s="13" t="e">
         <f>#REF!</f>
@@ -4274,8 +4437,8 @@
         <v>64</v>
       </c>
       <c r="D47" s="13">
-        <f>MAY!H48</f>
-        <v>12</v>
+        <f>MAY!I48</f>
+        <v>15</v>
       </c>
       <c r="E47" s="13" t="e">
         <f>#REF!</f>
@@ -4309,8 +4472,8 @@
         <v>65</v>
       </c>
       <c r="D48" s="13">
-        <f>MAY!H49</f>
-        <v>12</v>
+        <f>MAY!I49</f>
+        <v>15</v>
       </c>
       <c r="E48" s="13" t="e">
         <f>#REF!</f>
@@ -4344,8 +4507,8 @@
         <v>66</v>
       </c>
       <c r="D49" s="13">
-        <f>MAY!H50</f>
-        <v>12</v>
+        <f>MAY!I50</f>
+        <v>15</v>
       </c>
       <c r="E49" s="13" t="e">
         <f>#REF!</f>
@@ -5136,10 +5299,10 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C77" s="23"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="60"/>
+      <c r="G77" s="68"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E78" s="3"/>
@@ -5154,14 +5317,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -5171,6 +5326,14 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
